--- a/data/projecao_covid19.xlsx
+++ b/data/projecao_covid19.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igor.carvalho\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9745A9-434A-4A2B-A0D6-78CAA3D0A28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -55,47 +61,47 @@
     <t>RS</t>
   </si>
   <si>
-    <t>Jan/2024</t>
-  </si>
-  <si>
-    <t>Feb/2024</t>
-  </si>
-  <si>
-    <t>Mar/2024</t>
-  </si>
-  <si>
-    <t>Apr/2024</t>
-  </si>
-  <si>
-    <t>May/2024</t>
-  </si>
-  <si>
-    <t>Jun/2024</t>
-  </si>
-  <si>
-    <t>Jul/2024</t>
-  </si>
-  <si>
-    <t>Aug/2024</t>
-  </si>
-  <si>
-    <t>Sep/2024</t>
-  </si>
-  <si>
-    <t>Oct/2024</t>
-  </si>
-  <si>
-    <t>Nov/2024</t>
-  </si>
-  <si>
-    <t>Dec/2024</t>
+    <t>Feb/2020</t>
+  </si>
+  <si>
+    <t>Apr/2020</t>
+  </si>
+  <si>
+    <t>May/2020</t>
+  </si>
+  <si>
+    <t>Aug/2020</t>
+  </si>
+  <si>
+    <t>Sep/2020</t>
+  </si>
+  <si>
+    <t>Oct/2020</t>
+  </si>
+  <si>
+    <t>Dec/2020</t>
+  </si>
+  <si>
+    <t>Jan/2020</t>
+  </si>
+  <si>
+    <t>Mar/2020</t>
+  </si>
+  <si>
+    <t>Jun/2020</t>
+  </si>
+  <si>
+    <t>Jul/2020</t>
+  </si>
+  <si>
+    <t>Nov/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,24 +153,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,7 +217,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -236,6 +251,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -270,9 +286,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -445,14 +462,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,12 +507,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C2">
         <v>12270</v>
@@ -504,12 +533,12 @@
         <v>10860</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C3">
         <v>10390</v>
@@ -530,12 +559,12 @@
         <v>32144</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C4">
         <v>10734</v>
@@ -556,12 +585,12 @@
         <v>58994</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C5">
         <v>18526</v>
@@ -582,12 +611,12 @@
         <v>90956</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C6">
         <v>19423</v>
@@ -608,12 +637,12 @@
         <v>116979</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C7">
         <v>13322</v>
@@ -634,12 +663,12 @@
         <v>127748</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C8">
         <v>15583</v>
@@ -660,12 +689,12 @@
         <v>140181</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C9">
         <v>10311</v>
@@ -686,12 +715,12 @@
         <v>189369</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C10">
         <v>6184</v>
@@ -712,12 +741,12 @@
         <v>228062</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C11">
         <v>11396</v>
@@ -738,12 +767,12 @@
         <v>265542</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C12">
         <v>13666</v>
@@ -764,12 +793,12 @@
         <v>294484</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C13">
         <v>12849</v>
@@ -790,12 +819,12 @@
         <v>304673</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C14">
         <v>7734</v>
@@ -816,12 +845,12 @@
         <v>11899</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C15">
         <v>12734</v>
@@ -842,12 +871,12 @@
         <v>53450</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C16">
         <v>6528</v>
@@ -868,12 +897,12 @@
         <v>67006</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C17">
         <v>8890</v>
@@ -894,12 +923,12 @@
         <v>107746</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" t="s">
-        <v>17</v>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C18">
         <v>16080</v>
@@ -920,12 +949,12 @@
         <v>139523</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
-        <v>18</v>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C19">
         <v>15627</v>
@@ -946,12 +975,12 @@
         <v>157956</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
-        <v>19</v>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C20">
         <v>15233</v>
@@ -972,12 +1001,12 @@
         <v>191853</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" t="s">
-        <v>20</v>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C21">
         <v>7612</v>
@@ -998,12 +1027,12 @@
         <v>225336</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" t="s">
-        <v>21</v>
+      <c r="B22" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C22">
         <v>14670</v>
@@ -1024,12 +1053,12 @@
         <v>252495</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B23" t="s">
-        <v>22</v>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C23">
         <v>17206</v>
@@ -1050,12 +1079,12 @@
         <v>277036</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" t="s">
-        <v>23</v>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C24">
         <v>8152</v>
@@ -1076,12 +1105,12 @@
         <v>288621</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" t="s">
-        <v>24</v>
+      <c r="B25" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C25">
         <v>8943</v>
@@ -1102,12 +1131,12 @@
         <v>318078</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="B26" t="s">
-        <v>13</v>
+      <c r="B26" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C26">
         <v>6021</v>
@@ -1128,12 +1157,12 @@
         <v>23417</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="B27" t="s">
-        <v>14</v>
+      <c r="B27" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C27">
         <v>8843</v>
@@ -1154,12 +1183,12 @@
         <v>43109</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="B28" t="s">
-        <v>15</v>
+      <c r="B28" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C28">
         <v>17990</v>
@@ -1180,12 +1209,12 @@
         <v>59982</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="B29" t="s">
-        <v>16</v>
+      <c r="B29" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C29">
         <v>10675</v>
@@ -1206,12 +1235,12 @@
         <v>107047</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B30" t="s">
-        <v>17</v>
+      <c r="B30" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C30">
         <v>15173</v>
@@ -1232,12 +1261,12 @@
         <v>149653</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
-      <c r="B31" t="s">
-        <v>18</v>
+      <c r="B31" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C31">
         <v>18103</v>
@@ -1258,12 +1287,12 @@
         <v>188780</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="B32" t="s">
-        <v>19</v>
+      <c r="B32" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C32">
         <v>12629</v>
@@ -1284,12 +1313,12 @@
         <v>224631</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>10</v>
       </c>
-      <c r="B33" t="s">
-        <v>20</v>
+      <c r="B33" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C33">
         <v>6016</v>
@@ -1310,12 +1339,12 @@
         <v>258907</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="B34" t="s">
-        <v>21</v>
+      <c r="B34" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C34">
         <v>11863</v>
@@ -1336,12 +1365,12 @@
         <v>277436</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>10</v>
       </c>
-      <c r="B35" t="s">
-        <v>22</v>
+      <c r="B35" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C35">
         <v>5878</v>
@@ -1362,12 +1391,12 @@
         <v>308707</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
-      <c r="B36" t="s">
-        <v>23</v>
+      <c r="B36" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C36">
         <v>17185</v>
@@ -1388,12 +1417,12 @@
         <v>339950</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
-      <c r="B37" t="s">
-        <v>24</v>
+      <c r="B37" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C37">
         <v>11331</v>
@@ -1414,12 +1443,12 @@
         <v>389926</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
-      <c r="B38" t="s">
-        <v>13</v>
+      <c r="B38" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C38">
         <v>10276</v>
@@ -1440,12 +1469,12 @@
         <v>12568</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>11</v>
       </c>
-      <c r="B39" t="s">
-        <v>14</v>
+      <c r="B39" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C39">
         <v>10463</v>
@@ -1466,12 +1495,12 @@
         <v>24595</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>11</v>
       </c>
-      <c r="B40" t="s">
-        <v>15</v>
+      <c r="B40" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C40">
         <v>7695</v>
@@ -1492,12 +1521,12 @@
         <v>39853</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>11</v>
       </c>
-      <c r="B41" t="s">
-        <v>16</v>
+      <c r="B41" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C41">
         <v>10618</v>
@@ -1518,12 +1547,12 @@
         <v>83012</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>11</v>
       </c>
-      <c r="B42" t="s">
-        <v>17</v>
+      <c r="B42" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C42">
         <v>18986</v>
@@ -1544,12 +1573,12 @@
         <v>105678</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>11</v>
       </c>
-      <c r="B43" t="s">
-        <v>18</v>
+      <c r="B43" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C43">
         <v>10892</v>
@@ -1570,12 +1599,12 @@
         <v>154630</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>11</v>
       </c>
-      <c r="B44" t="s">
-        <v>19</v>
+      <c r="B44" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C44">
         <v>8099</v>
@@ -1596,12 +1625,12 @@
         <v>173022</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="B45" t="s">
-        <v>20</v>
+      <c r="B45" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C45">
         <v>19151</v>
@@ -1622,12 +1651,12 @@
         <v>206621</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
-      <c r="B46" t="s">
-        <v>21</v>
+      <c r="B46" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C46">
         <v>17790</v>
@@ -1648,12 +1677,12 @@
         <v>228458</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>11</v>
       </c>
-      <c r="B47" t="s">
-        <v>22</v>
+      <c r="B47" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C47">
         <v>19039</v>
@@ -1674,12 +1703,12 @@
         <v>269276</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B48" t="s">
-        <v>23</v>
+      <c r="B48" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C48">
         <v>7731</v>
@@ -1700,12 +1729,12 @@
         <v>290241</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="B49" t="s">
-        <v>24</v>
+      <c r="B49" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C49">
         <v>13154</v>
@@ -1726,12 +1755,12 @@
         <v>305297</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
-      <c r="B50" t="s">
-        <v>13</v>
+      <c r="B50" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C50">
         <v>19948</v>
@@ -1752,12 +1781,12 @@
         <v>23773</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
-      <c r="B51" t="s">
-        <v>14</v>
+      <c r="B51" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C51">
         <v>15882</v>
@@ -1778,12 +1807,12 @@
         <v>51185</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
-      <c r="B52" t="s">
-        <v>15</v>
+      <c r="B52" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C52">
         <v>12385</v>
@@ -1804,12 +1833,12 @@
         <v>86631</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
-      <c r="B53" t="s">
-        <v>16</v>
+      <c r="B53" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C53">
         <v>11938</v>
@@ -1830,12 +1859,12 @@
         <v>96837</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>12</v>
       </c>
-      <c r="B54" t="s">
-        <v>17</v>
+      <c r="B54" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C54">
         <v>10134</v>
@@ -1856,12 +1885,12 @@
         <v>130256</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
-      <c r="B55" t="s">
-        <v>18</v>
+      <c r="B55" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C55">
         <v>6484</v>
@@ -1882,12 +1911,12 @@
         <v>162659</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
-      <c r="B56" t="s">
-        <v>19</v>
+      <c r="B56" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C56">
         <v>6757</v>
@@ -1908,12 +1937,12 @@
         <v>179033</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
-      <c r="B57" t="s">
-        <v>20</v>
+      <c r="B57" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C57">
         <v>11892</v>
@@ -1934,12 +1963,12 @@
         <v>222860</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>12</v>
       </c>
-      <c r="B58" t="s">
-        <v>21</v>
+      <c r="B58" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C58">
         <v>11668</v>
@@ -1960,12 +1989,12 @@
         <v>249058</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
-      <c r="B59" t="s">
-        <v>22</v>
+      <c r="B59" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C59">
         <v>14914</v>
@@ -1986,12 +2015,12 @@
         <v>281357</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
-      <c r="B60" t="s">
-        <v>23</v>
+      <c r="B60" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C60">
         <v>15817</v>
@@ -2012,12 +2041,12 @@
         <v>294050</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>12</v>
       </c>
-      <c r="B61" t="s">
-        <v>24</v>
+      <c r="B61" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C61">
         <v>18083</v>
